--- a/Milestone7/MAX.xlsx
+++ b/Milestone7/MAX.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TJorg\Desktop\Milestone 7 Final Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="260" yWindow="180" windowWidth="22180" windowHeight="13540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
     <t>Elementary Process</t>
   </si>
@@ -158,7 +156,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -266,7 +264,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -318,7 +316,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -512,7 +510,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -524,16 +522,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P9" sqref="P9:P10"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="3.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="109">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -566,17 +564,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -584,52 +582,64 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -637,7 +647,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -645,7 +655,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -653,7 +663,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -661,7 +671,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -669,7 +679,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -677,7 +687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -685,7 +695,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -693,7 +703,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -701,7 +711,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -709,7 +719,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -717,7 +727,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -725,7 +735,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -739,7 +749,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -747,7 +757,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -758,7 +768,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -772,7 +782,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -786,7 +796,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -802,6 +812,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Milestone7/MAX.xlsx
+++ b/Milestone7/MAX.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csansoni.PKI-IST\Desktop\ISQA 4120\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="260" yWindow="180" windowWidth="22180" windowHeight="13540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10200" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>Elementary Process</t>
   </si>
@@ -156,7 +161,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -510,7 +515,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -522,16 +527,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="109">
+    <row r="1" spans="1:11" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -564,17 +569,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -582,64 +587,52 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
-      <c r="I13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -647,7 +640,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -655,7 +648,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -663,7 +656,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -671,7 +664,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -679,7 +672,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -687,15 +680,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -703,7 +696,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -711,7 +704,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -719,7 +712,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -727,7 +720,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -735,7 +728,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -749,7 +742,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -757,18 +750,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="I28" t="s">
         <v>31</v>
       </c>
-      <c r="J28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -782,7 +772,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -796,7 +786,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
